--- a/classfiers/nano/randomForest/smote/nano-randomForest-smote-results.xlsx
+++ b/classfiers/nano/randomForest/smote/nano-randomForest-smote-results.xlsx
@@ -470,13 +470,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9896907216494846</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.9948186528497409</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.9976086725475608</v>
       </c>
     </row>
     <row r="3">
@@ -524,13 +524,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9508928571428571</v>
+        <v>0.9556650246305419</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9748283752860412</v>
+        <v>0.9773299748110832</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.9847715736040609</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9901785714285716</v>
+        <v>0.9851330049261083</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.9979381443298969</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9949656750572082</v>
+        <v>0.991384040252977</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.9995217345095121</v>
       </c>
     </row>
   </sheetData>
